--- a/caps.xlsx
+++ b/caps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18312\Desktop\214A\EE214A_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C3FCC1-CB7F-442B-AFC4-8E74B666EF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0840B-A623-4135-AA63-611AABA447C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="120" windowWidth="16605" windowHeight="15150" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
+    <workbookView xWindow="-210" yWindow="150" windowWidth="14115" windowHeight="15150" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Cgs</t>
   </si>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -313,13 +313,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2857,6 +2854,2588 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, L=1u</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.434870192649885E-2"/>
+                  <c:y val="0.11076167001206377"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.166700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.333400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.666800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.6671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.33410000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgd [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="1.444067460494017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0031000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5076999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.076699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.153300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4999999999999494E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13749999999999929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27509999999999835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55020000000000024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3754000000000026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.750899999999973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>csb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8992992123182044E-3"/>
+                  <c:y val="4.1049102971704172E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.599899999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1994701831597428E-2"/>
+                  <c:y val="6.3432542684004251E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8923000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.484399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.471400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.1164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs_calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5467419155851858E-3"/>
+                  <c:y val="3.4420767479435024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$T$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-88D5-46ED-831D-241EBED3734D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446262768"/>
+        <c:axId val="446266288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>W [um]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446266288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446266288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [fF]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, L=2u</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16729526501221861"/>
+                  <c:y val="2.2311489309771906E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$6:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.833400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.666800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.333600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.33410000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356.66820000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgd [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="1.444067460494017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$7:$AH$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0307000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.061299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.153300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.306699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$8:$AH$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27509999999999835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55019999999999936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1003999999999969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7509000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5017000000000067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>csb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8992992123182044E-3"/>
+                  <c:y val="4.1049102971704172E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$9:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.09999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="8.2806014850257986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$10:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8922999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.484500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.471499999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.1164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs_calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0763259507936132E-2"/>
+                  <c:y val="0.10626210031614956"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AC$11:$AH$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446262768"/>
+        <c:axId val="446266288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>W [um]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446266288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446266288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [fF]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2937,6 +5516,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3454,6 +6113,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4040,6 +7731,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>587749</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6BD478-9290-438C-800A-27000AD3A024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>587748</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE596EA3-EF47-4C32-B27E-F12556358A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4395,14 +8162,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59410281-FCCE-4CDD-AA76-884E080700AA}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34:L39"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34:AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6">
@@ -4423,7 +8190,7 @@
       <c r="G1" s="7">
         <v>100</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="6">
@@ -4491,815 +8258,959 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>3.4537</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>6.1780999999999997</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>10.7187</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>19.799900000000001</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>47.043599999999998</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>92.449799999999996</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="16">
         <v>3.4843999999999999</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>6.2548000000000004</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="17">
         <v>10.8721</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <v>20.1066</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <v>47.810299999999998</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="18">
         <v>93.983099999999993</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="10"/>
+      <c r="T2" s="16">
+        <v>4.8954000000000004</v>
+      </c>
+      <c r="U2" s="17">
+        <v>9.4985999999999997</v>
+      </c>
+      <c r="V2" s="17">
+        <v>17.1708</v>
+      </c>
+      <c r="W2" s="17">
+        <v>32.515099999999997</v>
+      </c>
+      <c r="X2" s="17">
+        <v>78.548100000000005</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>155.2697</v>
+      </c>
       <c r="AB2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="10"/>
+      <c r="AC2" s="16">
+        <v>4.8983999999999996</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>9.5062999999999995</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>17.1861</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>32.5458</v>
+      </c>
+      <c r="AG2" s="17">
+        <v>78.624799999999993</v>
+      </c>
+      <c r="AH2" s="18">
+        <v>155.42310000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>5.1696</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>12.9239</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>25.847799999999999</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>51.695599999999999</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>129.239</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <v>258.47800000000001</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <v>8.3391000000000002</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>20.847799999999999</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>41.695599999999999</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="20">
         <v>83.391199999999998</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="20">
         <v>208.47800000000001</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="21">
         <v>416.95589999999999</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="13"/>
+      <c r="T3" s="19">
+        <v>5.1247999999999996</v>
+      </c>
+      <c r="U3" s="20">
+        <v>12.8119</v>
+      </c>
+      <c r="V3" s="20">
+        <v>25.623799999999999</v>
+      </c>
+      <c r="W3" s="20">
+        <v>51.247700000000002</v>
+      </c>
+      <c r="X3" s="20">
+        <v>128.11920000000001</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>256.23829999999998</v>
+      </c>
       <c r="AB3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13"/>
+      <c r="AC3" s="19">
+        <v>8.2494999999999994</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>20.623799999999999</v>
+      </c>
+      <c r="AE3" s="20">
+        <v>41.247700000000002</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>82.4953</v>
+      </c>
+      <c r="AG3" s="20">
+        <v>206.23830000000001</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>412.47660000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>8.6667000000000005</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>17.166699999999999</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>31.333400000000001</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>59.666800000000002</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>144.667</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <v>286.33409999999998</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="19">
         <v>11.7334</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>24.833400000000001</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>46.666800000000002</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>90.333600000000004</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="20">
         <v>221.33410000000001</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="21">
         <v>439.66820000000001</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
+      <c r="T4" s="19">
+        <v>8.6667000000000005</v>
+      </c>
+      <c r="U4" s="20">
+        <v>18.5167</v>
+      </c>
+      <c r="V4" s="20">
+        <v>34.933399999999999</v>
+      </c>
+      <c r="W4" s="20">
+        <v>67.766800000000003</v>
+      </c>
+      <c r="X4" s="20">
+        <v>166.267</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>330.4341</v>
+      </c>
       <c r="AB4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="13"/>
+      <c r="AC4" s="19">
+        <v>11.7334</v>
+      </c>
+      <c r="AD4" s="20">
+        <v>26.183399999999999</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>50.266800000000003</v>
+      </c>
+      <c r="AF4" s="20">
+        <v>98.433599999999998</v>
+      </c>
+      <c r="AG4" s="20">
+        <v>242.9341</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>483.76819999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>7.0952999999999999</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>10.782</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>16.926400000000001</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>29.215399999999999</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>66.0822</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>127.5269</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="19">
         <v>7.1675000000000004</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>10.9625</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>17.287500000000001</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <v>29.9375</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="20">
         <v>67.887500000000003</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="21">
         <v>131.13749999999999</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="13"/>
+      <c r="T5" s="19">
+        <v>8.5472999999999999</v>
+      </c>
+      <c r="U5" s="20">
+        <v>15.4785</v>
+      </c>
+      <c r="V5" s="20">
+        <v>27.0306</v>
+      </c>
+      <c r="W5" s="20">
+        <v>50.134599999999999</v>
+      </c>
+      <c r="X5" s="20">
+        <v>119.4469</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>234.96729999999999</v>
+      </c>
       <c r="AB5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="13"/>
+      <c r="AC5" s="19">
+        <v>8.6022999999999996</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>15.616099999999999</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>27.305700000000002</v>
+      </c>
+      <c r="AF5" s="20">
+        <v>50.684800000000003</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>120.8223</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>237.71809999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>4.0667</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>10.166700000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>20.333400000000001</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>40.666800000000002</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>101.6671</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>203.33410000000001</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <v>7.1334</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <v>17.833400000000001</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>35.666800000000002</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="17">
         <v>71.333600000000004</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="17">
         <v>178.33410000000001</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="18">
         <v>356.66820000000001</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
+      <c r="T6" s="16">
+        <v>4.0667</v>
+      </c>
+      <c r="U6" s="17">
+        <v>10.166700000000001</v>
+      </c>
+      <c r="V6" s="17">
+        <v>20.333400000000001</v>
+      </c>
+      <c r="W6" s="17">
+        <v>40.666800000000002</v>
+      </c>
+      <c r="X6" s="17">
+        <v>101.6671</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>203.33410000000001</v>
+      </c>
       <c r="AB6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="10"/>
+      <c r="AC6" s="16">
+        <v>7.1334</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>17.833400000000001</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>35.666800000000002</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>71.333600000000004</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>178.33410000000001</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>356.66820000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>1.0306999999999999</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>2.5767000000000002</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>5.1532999999999998</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>10.306699999999999</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>25.7667</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>51.533299999999997</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="19">
         <v>1.0612999999999999</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>2.6533000000000002</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <v>5.3067000000000002</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="20">
         <v>10.613300000000001</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="20">
         <v>26.533300000000001</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="21">
         <v>53.066699999999997</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13"/>
+      <c r="T7" s="19">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="U7" s="20">
+        <v>2.5076999999999998</v>
+      </c>
+      <c r="V7" s="20">
+        <v>5.0152999999999999</v>
+      </c>
+      <c r="W7" s="20">
+        <v>10.0307</v>
+      </c>
+      <c r="X7" s="20">
+        <v>25.076699999999999</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>50.153300000000002</v>
+      </c>
       <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="13"/>
+      <c r="AC7" s="19">
+        <v>1.0061</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>2.5152999999999999</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>5.0307000000000004</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>10.061299999999999</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>25.153300000000002</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>50.306699999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <f>B3-B6-B7</f>
         <v>7.2200000000000042E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <f t="shared" ref="C8:G8" si="0">C3-C6-C7</f>
         <v>0.18049999999999899</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>0.36109999999999864</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.72209999999999752</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>1.8051999999999992</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
         <v>3.6106000000000051</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <f>K3-K6-K7</f>
         <v>0.14440000000000031</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <f t="shared" ref="L8:P8" si="1">L3-L6-L7</f>
         <v>0.3610999999999982</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <f t="shared" si="1"/>
         <v>0.72209999999999663</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="17">
         <f t="shared" si="1"/>
         <v>1.444299999999993</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="17">
         <f t="shared" si="1"/>
         <v>3.6106000000000016</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="18">
         <f t="shared" si="1"/>
         <v>7.2209999999999752</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="16">
         <f>T3-T6-T7</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
+        <v>5.4999999999999494E-2</v>
+      </c>
+      <c r="U8" s="17">
         <f t="shared" ref="U8" si="2">U3-U6-U7</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
+        <v>0.13749999999999929</v>
+      </c>
+      <c r="V8" s="17">
         <f t="shared" ref="V8" si="3">V3-V6-V7</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
+        <v>0.27509999999999835</v>
+      </c>
+      <c r="W8" s="17">
         <f t="shared" ref="W8" si="4">W3-W6-W7</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
+        <v>0.55020000000000024</v>
+      </c>
+      <c r="X8" s="17">
         <f t="shared" ref="X8" si="5">X3-X6-X7</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
+        <v>1.3754000000000026</v>
+      </c>
+      <c r="Y8" s="18">
         <f t="shared" ref="Y8" si="6">Y3-Y6-Y7</f>
-        <v>0</v>
+        <v>2.750899999999973</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="16">
         <f>AC3-AC6-AC7</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="AD8" s="17">
         <f t="shared" ref="AD8" si="7">AD3-AD6-AD7</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
+        <v>0.27509999999999835</v>
+      </c>
+      <c r="AE8" s="17">
         <f t="shared" ref="AE8" si="8">AE3-AE6-AE7</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="9">
+        <v>0.55019999999999936</v>
+      </c>
+      <c r="AF8" s="17">
         <f t="shared" ref="AF8" si="9">AF3-AF6-AF7</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="9">
+        <v>1.1003999999999969</v>
+      </c>
+      <c r="AG8" s="17">
         <f t="shared" ref="AG8" si="10">AG3-AG6-AG7</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="10">
+        <v>2.7509000000000015</v>
+      </c>
+      <c r="AH8" s="18">
         <f t="shared" ref="AH8" si="11">AH3-AH6-AH7</f>
-        <v>0</v>
+        <v>5.5017000000000067</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <f>B4-B6</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:G9" si="12">C4-C6</f>
         <v>6.9999999999999982</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <f t="shared" si="12"/>
         <v>42.999899999999997</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <f t="shared" si="12"/>
         <v>82.999999999999972</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <f>K4-K6</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f t="shared" ref="L9:P9" si="13">L4-L6</f>
         <v>7</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="20">
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="21">
         <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="19">
         <f>T4-T6</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="U9" s="20">
         <f t="shared" ref="U9:Y9" si="14">U4-U6</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
+        <v>8.35</v>
+      </c>
+      <c r="V9" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="12">
+        <v>14.599999999999998</v>
+      </c>
+      <c r="W9" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
+        <v>27.1</v>
+      </c>
+      <c r="X9" s="20">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="13">
+        <v>64.599899999999991</v>
+      </c>
+      <c r="Y9" s="21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>127.1</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="19">
         <f>AC4-AC6</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD9" s="20">
         <f t="shared" ref="AD9:AH9" si="15">AD4-AD6</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="12">
+        <v>8.3499999999999979</v>
+      </c>
+      <c r="AE9" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="AF9" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12">
+        <v>27.099999999999994</v>
+      </c>
+      <c r="AG9" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="13">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AH9" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>127.09999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <f>B2-B7</f>
         <v>2.423</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <f t="shared" ref="C10:G10" si="16">C2-C7</f>
         <v>3.6013999999999995</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <f t="shared" si="16"/>
         <v>5.5654000000000003</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <f t="shared" si="16"/>
         <v>9.4932000000000016</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <f t="shared" si="16"/>
         <v>21.276899999999998</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <f t="shared" si="16"/>
         <v>40.916499999999999</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <f>K2-K7</f>
         <v>2.4230999999999998</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <f t="shared" ref="L10:P10" si="17">L2-L7</f>
         <v>3.6015000000000001</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <f t="shared" si="17"/>
         <v>5.5653999999999995</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="23">
         <f t="shared" si="17"/>
         <v>9.4932999999999996</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="23">
         <f t="shared" si="17"/>
         <v>21.276999999999997</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="24">
         <f t="shared" si="17"/>
         <v>40.916399999999996</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="19">
         <f>T2-T7</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
+        <v>3.8923000000000005</v>
+      </c>
+      <c r="U10" s="20">
         <f t="shared" ref="U10:Y10" si="18">U2-U7</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
+        <v>6.9908999999999999</v>
+      </c>
+      <c r="V10" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
+        <v>12.1555</v>
+      </c>
+      <c r="W10" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="15">
+        <v>22.484399999999997</v>
+      </c>
+      <c r="X10" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
+        <v>53.471400000000003</v>
+      </c>
+      <c r="Y10" s="21">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>105.1164</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="22">
         <f>AC2-AC7</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15">
+        <v>3.8922999999999996</v>
+      </c>
+      <c r="AD10" s="23">
         <f t="shared" ref="AD10:AH10" si="19">AD2-AD7</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="15">
+        <v>6.9909999999999997</v>
+      </c>
+      <c r="AE10" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="15">
+        <v>12.1554</v>
+      </c>
+      <c r="AF10" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="15">
+        <v>22.484500000000001</v>
+      </c>
+      <c r="AG10" s="23">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="16">
+        <v>53.471499999999992</v>
+      </c>
+      <c r="AH10" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>105.1164</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <f>2/3*2.3*B1*1</f>
         <v>3.0666666666666664</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <f t="shared" ref="C11:G11" si="20">2/3*2.3*C1</f>
         <v>7.6666666666666661</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="26">
         <f t="shared" si="20"/>
         <v>15.333333333333332</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <f t="shared" si="20"/>
         <v>30.666666666666664</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="26">
         <f t="shared" si="20"/>
         <v>76.666666666666657</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <f t="shared" si="20"/>
         <v>153.33333333333331</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="25">
         <f>2/3*2.3*K1*2</f>
         <v>6.1333333333333329</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="26">
         <f t="shared" ref="L11:P11" si="21">2/3*2.3*L1*2</f>
         <v>15.333333333333332</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="26">
         <f t="shared" si="21"/>
         <v>30.666666666666664</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="26">
         <f t="shared" si="21"/>
         <v>61.333333333333329</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="26">
         <f t="shared" si="21"/>
         <v>153.33333333333331</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="27">
         <f t="shared" si="21"/>
         <v>306.66666666666663</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="5">
-        <f>2/3*2.3*T1*2</f>
-        <v>6.1333333333333329</v>
-      </c>
-      <c r="U11" s="6">
-        <f t="shared" ref="U11:Y11" si="22">2/3*2.3*U1*2</f>
+      <c r="T11" s="26">
+        <f>2/3*2.3*T1*1</f>
+        <v>3.0666666666666664</v>
+      </c>
+      <c r="U11" s="26">
+        <f t="shared" ref="U11:Y11" si="22">2/3*2.3*U1*1</f>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="V11" s="26">
+        <f t="shared" si="22"/>
         <v>15.333333333333332</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="26">
         <f t="shared" si="22"/>
         <v>30.666666666666664</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="26">
         <f t="shared" si="22"/>
-        <v>61.333333333333329</v>
-      </c>
-      <c r="X11" s="6">
+        <v>76.666666666666657</v>
+      </c>
+      <c r="Y11" s="27">
         <f t="shared" si="22"/>
         <v>153.33333333333331</v>
       </c>
-      <c r="Y11" s="7">
-        <f t="shared" si="22"/>
-        <v>306.66666666666663</v>
-      </c>
-      <c r="AB11" s="18" t="s">
+      <c r="AB11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="25">
         <f>2/3*2.3*AC1*2</f>
         <v>6.1333333333333329</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="26">
         <f t="shared" ref="AD11:AH11" si="23">2/3*2.3*AD1*2</f>
         <v>15.333333333333332</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="26">
         <f t="shared" si="23"/>
         <v>30.666666666666664</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="26">
         <f t="shared" si="23"/>
         <v>61.333333333333329</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="26">
         <f t="shared" si="23"/>
         <v>153.33333333333331</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="27">
         <f t="shared" si="23"/>
         <v>306.66666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5314,15 +9225,29 @@
       <c r="L34" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="8">
         <v>2.0329999999999999</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -5331,88 +9256,178 @@
       <c r="K35" s="8">
         <v>3.5670000000000002</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>0</v>
       </c>
+      <c r="S35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="8">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>0.53100000000000003</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <v>0</v>
       </c>
+      <c r="S36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.502</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0.503</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>0</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="11">
         <v>0</v>
       </c>
+      <c r="S37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>0.8</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>3</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>0.8</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>3</v>
       </c>
+      <c r="S38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="U38" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>0.39300000000000002</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>1.637</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="12">
         <v>0.39300000000000002</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="13">
         <v>1.6379999999999999</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" s="12">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="U39" s="13">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>1.8260000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/caps.xlsx
+++ b/caps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18312\Desktop\214A\EE214A_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0840B-A623-4135-AA63-611AABA447C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EE9B2-0F9A-4E0D-8D76-C8DBFC25FACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="150" windowWidth="14115" windowHeight="15150" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
+    <workbookView xWindow="9480" yWindow="510" windowWidth="17970" windowHeight="14940" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t>Cgs</t>
   </si>
@@ -5098,6 +5098,2588 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-6790-4408-BC40-B7F7036167B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446262768"/>
+        <c:axId val="446266288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>W [um]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446266288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446266288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [fF]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, L=4u</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33678327184512086"/>
+                  <c:y val="2.8769228617954803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$6:$AQ$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.2667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.166800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.333600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.66730000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331.66820000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>663.33640000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgd [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="1.444067460494017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$7:$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5306999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.306699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.613300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$8:$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22010000000000018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5501999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.100399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.200599999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5017000000000067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.00350000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>csb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8992992123182044E-3"/>
+                  <c:y val="4.1049102971704172E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$9:$AQ$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="8.2806014850257986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$10:$AQ$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8923000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.471399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.1164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs_calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22143726719495124"/>
+                  <c:y val="0.14177966651115548"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$11:$AQ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613.33333333333326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2F81-4954-B83D-9592CAAD0545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446262768"/>
+        <c:axId val="446266288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>W [um]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446266288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446266288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [fF]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, L=4u</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33678327184512086"/>
+                  <c:y val="2.8769228617954803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$6:$AQ$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.2667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.166800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.333600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.66730000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331.66820000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>663.33640000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3021-4664-985F-02746BAA8231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgd [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="1.444067460494017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$7:$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5306999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.306699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.613300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3021-4664-985F-02746BAA8231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$8:$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22010000000000018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5501999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.100399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.200599999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5017000000000067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.00350000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3021-4664-985F-02746BAA8231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>csb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8992992123182044E-3"/>
+                  <c:y val="4.1049102971704172E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$9:$AQ$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3021-4664-985F-02746BAA8231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdb [fF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0870097748463781E-4"/>
+                  <c:y val="8.2806014850257986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$10:$AQ$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8923000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.471399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.1164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3021-4664-985F-02746BAA8231}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nmos_1u!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cgs_calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22143726719495124"/>
+                  <c:y val="0.14177966651115548"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>nmos_1u!$AL$11:$AQ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613.33333333333326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3021-4664-985F-02746BAA8231}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5596,6 +8178,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7145,6 +9807,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7807,6 +11501,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>576543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C0143E-9850-49DB-AFCC-6740DD6278D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>576542</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85723D6-A92D-45E2-9147-539A2988DA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8160,15 +11930,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59410281-FCCE-4CDD-AA76-884E080700AA}">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34:AD39"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -8253,8 +12023,50 @@
       <c r="AH1" s="7">
         <v>100</v>
       </c>
+      <c r="AK1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="7">
+        <v>100</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="6">
+        <v>5</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>10</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>20</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -8339,8 +12151,38 @@
       <c r="AH2" s="18">
         <v>155.42310000000001</v>
       </c>
+      <c r="AK2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>4.9046000000000003</v>
+      </c>
+      <c r="AM2" s="17">
+        <v>9.5215999999999994</v>
+      </c>
+      <c r="AN2" s="17">
+        <v>17.216799999999999</v>
+      </c>
+      <c r="AO2" s="17">
+        <v>32.607100000000003</v>
+      </c>
+      <c r="AP2" s="17">
+        <v>78.778099999999995</v>
+      </c>
+      <c r="AQ2" s="18">
+        <v>155.72970000000001</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="18"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -8425,8 +12267,38 @@
       <c r="AH3" s="21">
         <v>412.47660000000002</v>
       </c>
+      <c r="AK3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="19">
+        <v>14.4991</v>
+      </c>
+      <c r="AM3" s="20">
+        <v>36.247700000000002</v>
+      </c>
+      <c r="AN3" s="20">
+        <v>72.4953</v>
+      </c>
+      <c r="AO3" s="20">
+        <v>144.9906</v>
+      </c>
+      <c r="AP3" s="20">
+        <v>362.47660000000002</v>
+      </c>
+      <c r="AQ3" s="21">
+        <v>724.95320000000004</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -8511,8 +12383,38 @@
       <c r="AH4" s="21">
         <v>483.76819999999998</v>
       </c>
+      <c r="AK4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="19">
+        <v>17.866700000000002</v>
+      </c>
+      <c r="AM4" s="20">
+        <v>41.516800000000003</v>
+      </c>
+      <c r="AN4" s="20">
+        <v>80.933599999999998</v>
+      </c>
+      <c r="AO4" s="20">
+        <v>159.76730000000001</v>
+      </c>
+      <c r="AP4" s="20">
+        <v>396.26819999999998</v>
+      </c>
+      <c r="AQ4" s="21">
+        <v>790.43640000000005</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="21"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -8597,8 +12499,38 @@
       <c r="AH5" s="21">
         <v>237.71809999999999</v>
       </c>
+      <c r="AK5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="19">
+        <v>8.7124000000000006</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>15.8912</v>
+      </c>
+      <c r="AN5" s="20">
+        <v>27.855799999999999</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>51.785200000000003</v>
+      </c>
+      <c r="AP5" s="20">
+        <v>123.5732</v>
+      </c>
+      <c r="AQ5" s="21">
+        <v>243.2199</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="21"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -8683,8 +12615,38 @@
       <c r="AH6" s="18">
         <v>356.66820000000001</v>
       </c>
+      <c r="AK6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>13.2667</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>33.166800000000002</v>
+      </c>
+      <c r="AN6" s="17">
+        <v>66.333600000000004</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>132.66730000000001</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>331.66820000000001</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>663.33640000000003</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="18"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -8769,8 +12731,38 @@
       <c r="AH7" s="21">
         <v>50.306699999999999</v>
       </c>
+      <c r="AK7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>1.0123</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>2.5306999999999999</v>
+      </c>
+      <c r="AN7" s="20">
+        <v>5.0613000000000001</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>10.1227</v>
+      </c>
+      <c r="AP7" s="20">
+        <v>25.306699999999999</v>
+      </c>
+      <c r="AQ7" s="21">
+        <v>50.613300000000002</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="21"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -8879,8 +12871,62 @@
         <f t="shared" ref="AH8" si="11">AH3-AH6-AH7</f>
         <v>5.5017000000000067</v>
       </c>
+      <c r="AK8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="16">
+        <f>AL3-AL6-AL7</f>
+        <v>0.22010000000000018</v>
+      </c>
+      <c r="AM8" s="17">
+        <f t="shared" ref="AM8:AQ8" si="12">AM3-AM6-AM7</f>
+        <v>0.5501999999999998</v>
+      </c>
+      <c r="AN8" s="17">
+        <f t="shared" si="12"/>
+        <v>1.100399999999996</v>
+      </c>
+      <c r="AO8" s="17">
+        <f t="shared" si="12"/>
+        <v>2.200599999999989</v>
+      </c>
+      <c r="AP8" s="17">
+        <f t="shared" si="12"/>
+        <v>5.5017000000000067</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f t="shared" si="12"/>
+        <v>11.00350000000001</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU8" s="16">
+        <f>AU3-AU6-AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="17">
+        <f t="shared" ref="AV8:AZ8" si="13">AV3-AV6-AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -8889,23 +12935,23 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="C9" s="20">
-        <f t="shared" ref="C9:G9" si="12">C4-C6</f>
+        <f t="shared" ref="C9:G9" si="14">C4-C6</f>
         <v>6.9999999999999982</v>
       </c>
       <c r="D9" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="E9" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42.999899999999997</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>82.999999999999972</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -8916,23 +12962,23 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" ref="L9:P9" si="13">L4-L6</f>
+        <f t="shared" ref="L9:P9" si="15">L4-L6</f>
         <v>7</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -8943,23 +12989,23 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" ref="U9:Y9" si="14">U4-U6</f>
+        <f t="shared" ref="U9:Y9" si="16">U4-U6</f>
         <v>8.35</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.599999999999998</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27.1</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>64.599899999999991</v>
       </c>
       <c r="Y9" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>127.1</v>
       </c>
       <c r="AB9" s="3" t="s">
@@ -8970,27 +13016,81 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AD9" s="20">
-        <f t="shared" ref="AD9:AH9" si="15">AD4-AD6</f>
+        <f t="shared" ref="AD9:AH9" si="17">AD4-AD6</f>
         <v>8.3499999999999979</v>
       </c>
       <c r="AE9" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.600000000000001</v>
       </c>
       <c r="AF9" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27.099999999999994</v>
       </c>
       <c r="AG9" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>64.599999999999994</v>
       </c>
       <c r="AH9" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>127.09999999999997</v>
       </c>
+      <c r="AK9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="19">
+        <f>AL4-AL6</f>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="AM9" s="20">
+        <f t="shared" ref="AM9:AQ9" si="18">AM4-AM6</f>
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="AN9" s="20">
+        <f t="shared" si="18"/>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="AO9" s="20">
+        <f t="shared" si="18"/>
+        <v>27.099999999999994</v>
+      </c>
+      <c r="AP9" s="20">
+        <f t="shared" si="18"/>
+        <v>64.599999999999966</v>
+      </c>
+      <c r="AQ9" s="21">
+        <f t="shared" si="18"/>
+        <v>127.10000000000002</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU9" s="19">
+        <f>AU4-AU6</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="20">
+        <f t="shared" ref="AV9:AZ9" si="19">AV4-AV6</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -8999,23 +13099,23 @@
         <v>2.423</v>
       </c>
       <c r="C10" s="23">
-        <f t="shared" ref="C10:G10" si="16">C2-C7</f>
+        <f t="shared" ref="C10:G10" si="20">C2-C7</f>
         <v>3.6013999999999995</v>
       </c>
       <c r="D10" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5.5654000000000003</v>
       </c>
       <c r="E10" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.4932000000000016</v>
       </c>
       <c r="F10" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>21.276899999999998</v>
       </c>
       <c r="G10" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>40.916499999999999</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -9026,23 +13126,23 @@
         <v>2.4230999999999998</v>
       </c>
       <c r="L10" s="23">
-        <f t="shared" ref="L10:P10" si="17">L2-L7</f>
+        <f t="shared" ref="L10:P10" si="21">L2-L7</f>
         <v>3.6015000000000001</v>
       </c>
       <c r="M10" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.5653999999999995</v>
       </c>
       <c r="N10" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.4932999999999996</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21.276999999999997</v>
       </c>
       <c r="P10" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>40.916399999999996</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -9053,23 +13153,23 @@
         <v>3.8923000000000005</v>
       </c>
       <c r="U10" s="20">
-        <f t="shared" ref="U10:Y10" si="18">U2-U7</f>
+        <f t="shared" ref="U10:Y10" si="22">U2-U7</f>
         <v>6.9908999999999999</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.1555</v>
       </c>
       <c r="W10" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>22.484399999999997</v>
       </c>
       <c r="X10" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>53.471400000000003</v>
       </c>
       <c r="Y10" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>105.1164</v>
       </c>
       <c r="AB10" s="4" t="s">
@@ -9080,27 +13180,81 @@
         <v>3.8922999999999996</v>
       </c>
       <c r="AD10" s="23">
-        <f t="shared" ref="AD10:AH10" si="19">AD2-AD7</f>
+        <f t="shared" ref="AD10:AH10" si="23">AD2-AD7</f>
         <v>6.9909999999999997</v>
       </c>
       <c r="AE10" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>12.1554</v>
       </c>
       <c r="AF10" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>22.484500000000001</v>
       </c>
       <c r="AG10" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>53.471499999999992</v>
       </c>
       <c r="AH10" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>105.1164</v>
       </c>
+      <c r="AK10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL10" s="22">
+        <f>AL2-AL7</f>
+        <v>3.8923000000000005</v>
+      </c>
+      <c r="AM10" s="23">
+        <f t="shared" ref="AM10:AQ10" si="24">AM2-AM7</f>
+        <v>6.9908999999999999</v>
+      </c>
+      <c r="AN10" s="23">
+        <f t="shared" si="24"/>
+        <v>12.1555</v>
+      </c>
+      <c r="AO10" s="23">
+        <f t="shared" si="24"/>
+        <v>22.484400000000001</v>
+      </c>
+      <c r="AP10" s="23">
+        <f t="shared" si="24"/>
+        <v>53.471399999999996</v>
+      </c>
+      <c r="AQ10" s="24">
+        <f t="shared" si="24"/>
+        <v>105.1164</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU10" s="22">
+        <f>AU2-AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="23">
+        <f t="shared" ref="AV10:AZ10" si="25">AV2-AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="24">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -9109,23 +13263,23 @@
         <v>3.0666666666666664</v>
       </c>
       <c r="C11" s="26">
-        <f t="shared" ref="C11:G11" si="20">2/3*2.3*C1</f>
+        <f t="shared" ref="C11:G11" si="26">2/3*2.3*C1</f>
         <v>7.6666666666666661</v>
       </c>
       <c r="D11" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>15.333333333333332</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>30.666666666666664</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>76.666666666666657</v>
       </c>
       <c r="G11" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>153.33333333333331</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -9136,23 +13290,23 @@
         <v>6.1333333333333329</v>
       </c>
       <c r="L11" s="26">
-        <f t="shared" ref="L11:P11" si="21">2/3*2.3*L1*2</f>
+        <f t="shared" ref="L11:P11" si="27">2/3*2.3*L1*2</f>
         <v>15.333333333333332</v>
       </c>
       <c r="M11" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>30.666666666666664</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>61.333333333333329</v>
       </c>
       <c r="O11" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>153.33333333333331</v>
       </c>
       <c r="P11" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>306.66666666666663</v>
       </c>
       <c r="S11" s="14" t="s">
@@ -9163,23 +13317,23 @@
         <v>3.0666666666666664</v>
       </c>
       <c r="U11" s="26">
-        <f t="shared" ref="U11:Y11" si="22">2/3*2.3*U1*1</f>
+        <f t="shared" ref="U11:Y11" si="28">2/3*2.3*U1*1</f>
         <v>7.6666666666666661</v>
       </c>
       <c r="V11" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>15.333333333333332</v>
       </c>
       <c r="W11" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>30.666666666666664</v>
       </c>
       <c r="X11" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>76.666666666666657</v>
       </c>
       <c r="Y11" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>153.33333333333331</v>
       </c>
       <c r="AB11" s="15" t="s">
@@ -9190,27 +13344,81 @@
         <v>6.1333333333333329</v>
       </c>
       <c r="AD11" s="26">
-        <f t="shared" ref="AD11:AH11" si="23">2/3*2.3*AD1*2</f>
+        <f t="shared" ref="AD11:AH11" si="29">2/3*2.3*AD1*2</f>
         <v>15.333333333333332</v>
       </c>
       <c r="AE11" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>30.666666666666664</v>
       </c>
       <c r="AF11" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>61.333333333333329</v>
       </c>
       <c r="AG11" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>153.33333333333331</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>306.66666666666663</v>
       </c>
+      <c r="AK11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="25">
+        <f>2/3*2.3*AL1*4</f>
+        <v>12.266666666666666</v>
+      </c>
+      <c r="AM11" s="25">
+        <f t="shared" ref="AM11:AQ11" si="30">2/3*2.3*AM1*4</f>
+        <v>30.666666666666664</v>
+      </c>
+      <c r="AN11" s="25">
+        <f t="shared" si="30"/>
+        <v>61.333333333333329</v>
+      </c>
+      <c r="AO11" s="25">
+        <f t="shared" si="30"/>
+        <v>122.66666666666666</v>
+      </c>
+      <c r="AP11" s="25">
+        <f t="shared" si="30"/>
+        <v>306.66666666666663</v>
+      </c>
+      <c r="AQ11" s="25">
+        <f t="shared" si="30"/>
+        <v>613.33333333333326</v>
+      </c>
+      <c r="AT11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="25">
+        <f>2/3*2.3*AU1*4</f>
+        <v>12.266666666666666</v>
+      </c>
+      <c r="AV11" s="25">
+        <f t="shared" ref="AV11:AZ11" si="31">2/3*2.3*AV1*4</f>
+        <v>30.666666666666664</v>
+      </c>
+      <c r="AW11" s="25">
+        <f t="shared" si="31"/>
+        <v>61.333333333333329</v>
+      </c>
+      <c r="AX11" s="25">
+        <f t="shared" si="31"/>
+        <v>122.66666666666666</v>
+      </c>
+      <c r="AY11" s="25">
+        <f t="shared" si="31"/>
+        <v>306.66666666666663</v>
+      </c>
+      <c r="AZ11" s="25">
+        <f t="shared" si="31"/>
+        <v>613.33333333333326</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9239,8 +13447,22 @@
       <c r="AD34" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV34" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -9277,8 +13499,22 @@
       <c r="AD35" s="9">
         <v>0</v>
       </c>
+      <c r="AK35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>6.633</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="9"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -9315,8 +13551,22 @@
       <c r="AD36" s="11">
         <v>0</v>
       </c>
+      <c r="AK36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="11"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
@@ -9353,8 +13603,22 @@
       <c r="AD37" s="11">
         <v>0</v>
       </c>
+      <c r="AK37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="11"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -9391,8 +13655,22 @@
       <c r="AD38" s="11">
         <v>2.1</v>
       </c>
+      <c r="AK38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="AT38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="11"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -9429,6 +13707,20 @@
       <c r="AD39" s="13">
         <v>1.8260000000000001</v>
       </c>
+      <c r="AK39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="AT39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/caps.xlsx
+++ b/caps.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18312\Desktop\214A\EE214A_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881EE9B2-0F9A-4E0D-8D76-C8DBFC25FACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27408FB7-656B-4F94-9646-382D64593143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="510" windowWidth="17970" windowHeight="14940" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D8206649-F15A-48C4-9489-3F62BFEEAB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nmos_1u" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="voltage dependence" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>Cgs</t>
   </si>
@@ -99,6 +99,54 @@
   </si>
   <si>
     <t>cdb [fF]</t>
+  </si>
+  <si>
+    <t>.op</t>
+  </si>
+  <si>
+    <t>.end</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MOSFETS</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>nmos114</t>
+  </si>
+  <si>
+    <t>l=4u</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t>0.9v</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>cdtot</t>
+  </si>
+  <si>
+    <t>cgtot</t>
+  </si>
+  <si>
+    <t>cstot</t>
+  </si>
+  <si>
+    <t>cbtot</t>
+  </si>
+  <si>
+    <t>w=10u</t>
   </si>
 </sst>
 </file>
@@ -6762,7 +6810,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>pmos</a:t>
+              <a:t>nmos</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -6812,7 +6860,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AK$6</c:f>
+              <c:f>nmos_1u!$AT$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6895,7 +6943,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6922,7 +6970,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$6:$AQ$6</c:f>
+              <c:f>nmos_1u!$AU$6:$AZ$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6959,7 +7007,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AK$7</c:f>
+              <c:f>nmos_1u!$AT$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7006,8 +7054,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0870097748463781E-4"/>
-                  <c:y val="1.444067460494017E-2"/>
+                  <c:x val="2.5085485420769178E-2"/>
+                  <c:y val="4.1627502850685116E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
@@ -7042,7 +7090,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7069,7 +7117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$7:$AQ$7</c:f>
+              <c:f>nmos_1u!$AU$7:$AZ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7106,7 +7154,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AK$8</c:f>
+              <c:f>nmos_1u!$AT$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7183,7 +7231,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7210,7 +7258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$8:$AQ$8</c:f>
+              <c:f>nmos_1u!$AU$8:$AZ$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7247,7 +7295,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AK$9</c:f>
+              <c:f>nmos_1u!$AT$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7294,8 +7342,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.8992992123182044E-3"/>
-                  <c:y val="4.1049102971704172E-2"/>
+                  <c:x val="-0.17500452264585162"/>
+                  <c:y val="5.9593747179506086E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
@@ -7330,7 +7378,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7357,7 +7405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$9:$AQ$9</c:f>
+              <c:f>nmos_1u!$AU$9:$AZ$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7365,19 +7413,19 @@
                   <c:v>4.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3500000000000014</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.599999999999994</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.099999999999994</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.599999999999966</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.10000000000002</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7394,7 +7442,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AK$10</c:f>
+              <c:f>nmos_1u!$AT$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7441,8 +7489,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0870097748463781E-4"/>
-                  <c:y val="8.2806014850257986E-2"/>
+                  <c:x val="-7.8705159078507198E-3"/>
+                  <c:y val="4.8227109030284002E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
@@ -7477,7 +7525,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7504,27 +7552,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$10:$AQ$10</c:f>
+              <c:f>nmos_1u!$AU$10:$AZ$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.8923000000000005</c:v>
+                  <c:v>3.9645999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9908999999999999</c:v>
+                  <c:v>5.9977999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.1555</c:v>
+                  <c:v>9.3863999999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.484400000000001</c:v>
+                  <c:v>16.163400000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.471399999999996</c:v>
+                  <c:v>36.494500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.1164</c:v>
+                  <c:v>70.379899999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7541,7 +7589,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>nmos_1u!$AB$11</c:f>
+              <c:f>nmos_1u!$AT$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7624,7 +7672,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$1:$AQ$1</c:f>
+              <c:f>nmos_1u!$AU$1:$AZ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7651,7 +7699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>nmos_1u!$AL$11:$AQ$11</c:f>
+              <c:f>nmos_1u!$AU$11:$AZ$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11932,8 +11980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59410281-FCCE-4CDD-AA76-884E080700AA}">
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS9" sqref="AS9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX38" sqref="AX38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12175,12 +12223,24 @@
       <c r="AT2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="18"/>
+      <c r="AU2" s="16">
+        <v>4.9768999999999997</v>
+      </c>
+      <c r="AV2" s="17">
+        <v>8.5284999999999993</v>
+      </c>
+      <c r="AW2" s="17">
+        <v>14.447699999999999</v>
+      </c>
+      <c r="AX2" s="17">
+        <v>26.286100000000001</v>
+      </c>
+      <c r="AY2" s="17">
+        <v>61.801200000000001</v>
+      </c>
+      <c r="AZ2" s="18">
+        <v>120.9932</v>
+      </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -12291,12 +12351,24 @@
       <c r="AT3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="21"/>
+      <c r="AU3" s="19">
+        <v>14.4991</v>
+      </c>
+      <c r="AV3" s="20">
+        <v>36.247700000000002</v>
+      </c>
+      <c r="AW3" s="20">
+        <v>72.4953</v>
+      </c>
+      <c r="AX3" s="20">
+        <v>144.9906</v>
+      </c>
+      <c r="AY3" s="20">
+        <v>362.47660000000002</v>
+      </c>
+      <c r="AZ3" s="21">
+        <v>724.95320000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12407,12 +12479,24 @@
       <c r="AT4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="21"/>
+      <c r="AU4" s="19">
+        <v>17.866700000000002</v>
+      </c>
+      <c r="AV4" s="20">
+        <v>40.166800000000002</v>
+      </c>
+      <c r="AW4" s="20">
+        <v>77.333600000000004</v>
+      </c>
+      <c r="AX4" s="20">
+        <v>151.66730000000001</v>
+      </c>
+      <c r="AY4" s="20">
+        <v>374.66820000000001</v>
+      </c>
+      <c r="AZ4" s="21">
+        <v>746.33640000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -12523,12 +12607,24 @@
       <c r="AT5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="21"/>
+      <c r="AU5" s="19">
+        <v>8.7847000000000008</v>
+      </c>
+      <c r="AV5" s="20">
+        <v>13.548</v>
+      </c>
+      <c r="AW5" s="20">
+        <v>21.486699999999999</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>37.364100000000001</v>
+      </c>
+      <c r="AY5" s="20">
+        <v>84.996300000000005</v>
+      </c>
+      <c r="AZ5" s="21">
+        <v>164.38339999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -12639,12 +12735,24 @@
       <c r="AT6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="18"/>
+      <c r="AU6" s="16">
+        <v>13.2667</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>33.166800000000002</v>
+      </c>
+      <c r="AW6" s="17">
+        <v>66.333600000000004</v>
+      </c>
+      <c r="AX6" s="17">
+        <v>132.66730000000001</v>
+      </c>
+      <c r="AY6" s="17">
+        <v>331.66820000000001</v>
+      </c>
+      <c r="AZ6" s="18">
+        <v>663.33640000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -12755,12 +12863,24 @@
       <c r="AT7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
+      <c r="AU7" s="19">
+        <v>1.0123</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>2.5306999999999999</v>
+      </c>
+      <c r="AW7" s="20">
+        <v>5.0613000000000001</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>10.1227</v>
+      </c>
+      <c r="AY7" s="20">
+        <v>25.306699999999999</v>
+      </c>
+      <c r="AZ7" s="21">
+        <v>50.613300000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -12903,27 +13023,27 @@
       </c>
       <c r="AU8" s="16">
         <f>AU3-AU6-AU7</f>
-        <v>0</v>
+        <v>0.22010000000000018</v>
       </c>
       <c r="AV8" s="17">
         <f t="shared" ref="AV8:AZ8" si="13">AV3-AV6-AV7</f>
-        <v>0</v>
+        <v>0.5501999999999998</v>
       </c>
       <c r="AW8" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.100399999999996</v>
       </c>
       <c r="AX8" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.200599999999989</v>
       </c>
       <c r="AY8" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.5017000000000067</v>
       </c>
       <c r="AZ8" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11.00350000000001</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
@@ -13067,27 +13187,27 @@
       </c>
       <c r="AU9" s="19">
         <f>AU4-AU6</f>
-        <v>0</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="AV9" s="20">
         <f t="shared" ref="AV9:AZ9" si="19">AV4-AV6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW9" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX9" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY9" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ9" s="21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
@@ -13231,27 +13351,27 @@
       </c>
       <c r="AU10" s="22">
         <f>AU2-AU7</f>
-        <v>0</v>
+        <v>3.9645999999999999</v>
       </c>
       <c r="AV10" s="23">
         <f t="shared" ref="AV10:AZ10" si="25">AV2-AV7</f>
-        <v>0</v>
+        <v>5.9977999999999998</v>
       </c>
       <c r="AW10" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>9.3863999999999983</v>
       </c>
       <c r="AX10" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>16.163400000000003</v>
       </c>
       <c r="AY10" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>36.494500000000002</v>
       </c>
       <c r="AZ10" s="24">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>70.379899999999992</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
@@ -13511,8 +13631,12 @@
       <c r="AT35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="9"/>
+      <c r="AU35" s="8">
+        <v>6.633</v>
+      </c>
+      <c r="AV35" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -13563,8 +13687,12 @@
       <c r="AT36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AU36" s="10"/>
-      <c r="AV36" s="11"/>
+      <c r="AU36" s="10">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -13615,8 +13743,12 @@
       <c r="AT37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="11"/>
+      <c r="AU37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AV37" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -13667,8 +13799,12 @@
       <c r="AT38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="11"/>
+      <c r="AU38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="AV38" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -13719,8 +13855,12 @@
       <c r="AT39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="13"/>
+      <c r="AU39" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>2.609</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13731,14 +13871,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F8CC1-49B4-431F-B037-4E03EAE490A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>11.178699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>73.047300000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>77.333600000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>17.665700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>66.333600000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>5.6132999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>